--- a/BioSTEAM 2.x.x/biorefineries/LAOs/results/area_contributions.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/LAOs/results/area_contributions.xlsx
@@ -423,16 +423,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>27.01454240579728</v>
+        <v>27.01457269758257</v>
       </c>
       <c r="C2">
         <v>46.17608714099264</v>
       </c>
       <c r="D2">
-        <v>0.9343469303962824</v>
+        <v>0.9343468331584022</v>
       </c>
       <c r="E2">
-        <v>0.3631073711775314</v>
+        <v>0.363108018614811</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,7 +440,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>3.398904976428014</v>
+        <v>3.398908506054629</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -449,7 +449,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.6730286985787171</v>
+        <v>0.6730299153427385</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,13 +457,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6.851778364399527</v>
+        <v>5.237513852805575</v>
       </c>
       <c r="C4">
-        <v>1.235531684962151</v>
+        <v>3.753292922668921</v>
       </c>
       <c r="D4">
-        <v>5.706157225253676</v>
+        <v>8.356435345475706</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -474,16 +474,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>18.78737446818572</v>
+        <v>16.50675776278975</v>
       </c>
       <c r="C5">
-        <v>39.9882847323271</v>
+        <v>27.65653887058474</v>
       </c>
       <c r="D5">
-        <v>54.82027298608403</v>
+        <v>31.62661990543746</v>
       </c>
       <c r="E5">
-        <v>0.2799430429484563</v>
+        <v>0.2799434290119038</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,16 +491,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>27.86639273603352</v>
+        <v>30.23887193470565</v>
       </c>
       <c r="C6">
-        <v>48.60481162912578</v>
+        <v>48.5621766103971</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2.5069131371345</v>
+        <v>2.439800209241286</v>
       </c>
     </row>
   </sheetData>
